--- a/ANIMALES.xlsx
+++ b/ANIMALES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01sar\OneDrive\Desktop\WEB ANIMALS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01sar\OneDrive\Desktop\WEB ANIMALS\21-10-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66C980-AAAD-4970-B2B9-D431AC33346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2633245A-589B-4730-84F1-4AEAEE8B20BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="177">
   <si>
     <t>NAME</t>
   </si>
@@ -241,48 +241,6 @@
     <t>Fox</t>
   </si>
   <si>
-    <t>FOREST</t>
-  </si>
-  <si>
-    <t>SABANA</t>
-  </si>
-  <si>
-    <t>FARM</t>
-  </si>
-  <si>
-    <t>HERVIVOROUS</t>
-  </si>
-  <si>
-    <t>INVERTEBRATE</t>
-  </si>
-  <si>
-    <t>MARINE</t>
-  </si>
-  <si>
-    <t>OMNIVOROUS</t>
-  </si>
-  <si>
-    <t>OVIPAROUS</t>
-  </si>
-  <si>
-    <t>PORTADA</t>
-  </si>
-  <si>
-    <t>VERTEBRATE</t>
-  </si>
-  <si>
-    <t>VIVIPAROUS</t>
-  </si>
-  <si>
-    <t>CARNIVOROUS</t>
-  </si>
-  <si>
-    <t>ANIMALS</t>
-  </si>
-  <si>
-    <t>NICE TO MEET YOU</t>
-  </si>
-  <si>
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/ABEJA.png</t>
   </si>
   <si>
@@ -430,60 +388,6 @@
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/ZORRO.png</t>
   </si>
   <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/BOSQUE.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/SABANA.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/GRANJA.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/MARINO.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/CARNIVOROUS.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/HERBIVOROUS.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/PORTADA.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/INVERTEBRATE.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/OMNIVOROUS.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/OVIPAROUS.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/VIVIPAROUS.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/VERTEBRATE.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/FARM%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/FOREST%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/HERBIVOROUS%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/INVERTEBRATE%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/MARINE%20ANIMALS.mp3</t>
-  </si>
-  <si>
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/My%20name%20is%20Bee.mp3</t>
   </si>
   <si>
@@ -637,24 +541,6 @@
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/My%20name%20is%20wolf.mp3</t>
   </si>
   <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/VIVIPAROUS%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/VERTEBRATE%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/SAVANNAH%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/OVIPAROUS%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/ONMIVOROUS%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/AUDIO_PATH/NICE%20TO%20MEET%20YOU.mp3</t>
-  </si>
-  <si>
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/CONEJO.png</t>
   </si>
   <si>
@@ -665,12 +551,6 @@
   </si>
   <si>
     <t>https://github.com/iaworksarabia/ANIMALS/blob/80752a9d77970bd88dc24d2f670ba335784d3f1e/IMAGE_PATH/RANA.png</t>
-  </si>
-  <si>
-    <t>https://github.com/iaworksarabia/ANIMALS/blob/eee33b4f061de7f4c930da59cc7991493e0bb4c3/AUDIO_PATH/CARNIVOROUS%20ANIMALS.mp3</t>
-  </si>
-  <si>
-    <t>OTROS</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +945,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1105,56 +985,69 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>148</v>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>154</v>
+      <c r="C3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>167</v>
+      <c r="C4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -1165,39 +1058,39 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>198</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>199</v>
+        <v>77</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1206,27 +1099,27 @@
         <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>202</v>
+        <v>78</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>14</v>
@@ -1234,91 +1127,91 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>186</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>94</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>178</v>
+        <v>82</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -1326,22 +1219,22 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>196</v>
+        <v>83</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -1349,16 +1242,16 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -1367,21 +1260,21 @@
         <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1390,67 +1283,67 @@
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>162</v>
+        <v>86</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -1459,21 +1352,21 @@
         <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1482,21 +1375,21 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
@@ -1505,44 +1398,44 @@
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>193</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>213</v>
+      <c r="C21" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -1556,39 +1449,39 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>192</v>
+      <c r="C22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>158</v>
+      <c r="C23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
@@ -1597,21 +1490,21 @@
         <v>17</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>174</v>
+        <v>28</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
@@ -1620,67 +1513,67 @@
         <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>106</v>
+        <v>8</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>107</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
@@ -1694,16 +1587,16 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>109</v>
+        <v>28</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
@@ -1712,90 +1605,90 @@
         <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>111</v>
+      <c r="C30" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -1804,113 +1697,113 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>114</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>182</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>116</v>
+      <c r="C35" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>155</v>
+        <v>105</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
@@ -1919,21 +1812,21 @@
         <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>188</v>
+        <v>106</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>13</v>
@@ -1942,44 +1835,44 @@
         <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>13</v>
@@ -1993,22 +1886,22 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>166</v>
+      <c r="C41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>24</v>
@@ -2016,39 +1909,39 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>124</v>
+      <c r="C43" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>13</v>
@@ -2057,24 +1950,24 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>187</v>
+        <v>112</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -2085,19 +1978,19 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -2108,39 +2001,39 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>172</v>
+        <v>113</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>184</v>
+        <v>8</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>13</v>
@@ -2149,21 +2042,21 @@
         <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>13</v>
@@ -2177,39 +2070,39 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>191</v>
+      <c r="C49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>197</v>
+        <v>117</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>13</v>
@@ -2223,22 +2116,22 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>131</v>
+        <v>28</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>14</v>
@@ -2246,62 +2139,62 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>200</v>
+        <v>119</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>201</v>
+        <v>22</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>159</v>
+        <v>8</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>13</v>
@@ -2310,229 +2203,130 @@
         <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="23" t="s">
-        <v>74</v>
-      </c>
+      <c r="A57" s="8"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>150</v>
-      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="23" t="s">
-        <v>73</v>
-      </c>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>149</v>
-      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="23" t="s">
-        <v>75</v>
-      </c>
+      <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="23" t="s">
-        <v>78</v>
-      </c>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="C61" s="14"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>215</v>
-      </c>
+      <c r="A62" s="8"/>
+      <c r="C62" s="15"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="23" t="s">
-        <v>84</v>
-      </c>
+      <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="C63" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>209</v>
-      </c>
+      <c r="D63" s="7"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="23" t="s">
-        <v>79</v>
-      </c>
+      <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="C64" s="16"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="H64" s="23"/>
     </row>
     <row r="65" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>205</v>
-      </c>
+      <c r="C65" s="15"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="23" t="s">
-        <v>83</v>
-      </c>
+      <c r="H65" s="23"/>
     </row>
     <row r="66" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>206</v>
-      </c>
+      <c r="C66" s="21"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="23" t="s">
-        <v>82</v>
-      </c>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="23" t="s">
-        <v>77</v>
-      </c>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="23" t="s">
-        <v>81</v>
-      </c>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E71" s="6"/>
@@ -3454,11 +3248,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
-    </row>
+    <row r="255" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="256" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4204,44 +3994,37 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{694F146E-7873-4610-91C9-B2A4446FCC00}"/>
-    <hyperlink ref="C18" r:id="rId2" xr:uid="{20C7B1B3-3011-40E0-B203-DC5208E7CDC5}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{055D7A6E-84ED-4BB8-BE28-87F02B6D6E8A}"/>
-    <hyperlink ref="C26" r:id="rId4" xr:uid="{762994F3-1976-4FBB-B48B-822883A19F6D}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{109DA25F-4CE2-47F7-AA99-3368CDF15004}"/>
-    <hyperlink ref="C34" r:id="rId6" xr:uid="{7BB252FF-4F66-40A6-9A0D-8DF10435963D}"/>
-    <hyperlink ref="C36" r:id="rId7" xr:uid="{0CB37AAD-81A9-4FDA-88E9-0D69F3592708}"/>
-    <hyperlink ref="C42" r:id="rId8" xr:uid="{48E3859A-7177-4B43-B776-703A0B00172B}"/>
-    <hyperlink ref="C43" r:id="rId9" xr:uid="{CC10012A-B604-4BDB-8826-37A085A958F0}"/>
-    <hyperlink ref="C50" r:id="rId10" xr:uid="{EA153626-7714-4C3F-9120-DA38D477DE23}"/>
-    <hyperlink ref="C51" r:id="rId11" xr:uid="{38F78724-BB1F-4E0B-88FD-A0ED4C694411}"/>
-    <hyperlink ref="C55" r:id="rId12" xr:uid="{6922FC74-E871-4D71-BAA0-37D2E9016181}"/>
-    <hyperlink ref="C57" r:id="rId13" xr:uid="{08FE8EB3-84E5-4706-8ADA-FA37716B6588}"/>
-    <hyperlink ref="C67" r:id="rId14" xr:uid="{0018303F-CE14-4932-B233-033B55DE28F6}"/>
-    <hyperlink ref="D58" r:id="rId15" xr:uid="{8610F4E6-CBCB-4092-8F96-8A2BD74A7271}"/>
-    <hyperlink ref="D60" r:id="rId16" xr:uid="{FE5BA91A-59B5-4F1E-91AB-29F3C769B85F}"/>
-    <hyperlink ref="D54" r:id="rId17" xr:uid="{A8944E0C-0989-48EC-A459-7F30163AB1E3}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{50509023-D53A-4808-984F-28F1D9A73D23}"/>
-    <hyperlink ref="D15" r:id="rId19" xr:uid="{4C7EB7B0-131D-4FAF-A9FF-9205E0235E3D}"/>
-    <hyperlink ref="D4" r:id="rId20" xr:uid="{0E9A3DE6-8B52-43B8-A2E7-42FCB23A3D27}"/>
-    <hyperlink ref="D35" r:id="rId21" xr:uid="{C13871C5-0630-4D54-BBFC-C45AFEEA21DB}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{E08056A1-701D-4EF0-A1AC-C9FC8B6A8C4C}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{E0E82A4F-F0A5-4FBD-8EA6-6849A5B52536}"/>
-    <hyperlink ref="D11" r:id="rId24" xr:uid="{B3989A19-9FE3-4A03-8D6D-021A03DC5ABC}"/>
-    <hyperlink ref="D36" r:id="rId25" xr:uid="{29897B15-7B38-46AE-84CE-B03F72C44FA6}"/>
-    <hyperlink ref="D45" r:id="rId26" xr:uid="{734CF5CC-6314-4ABA-A1B1-019A90EFCA83}"/>
-    <hyperlink ref="D14" r:id="rId27" xr:uid="{45942A55-56C4-4DF6-B697-4425F4E6F68C}"/>
-    <hyperlink ref="D38" r:id="rId28" xr:uid="{92F257DC-A02C-419D-AE35-CDEB9074053A}"/>
-    <hyperlink ref="D17" r:id="rId29" xr:uid="{17886A30-DAE2-4C22-B335-409163CB1B5E}"/>
-    <hyperlink ref="D20" r:id="rId30" xr:uid="{36E1D9B9-5125-4FAB-8A7A-BF2DB6DA069A}"/>
-    <hyperlink ref="D50" r:id="rId31" xr:uid="{529E3E84-4107-4EB3-A63A-9C4425E55850}"/>
-    <hyperlink ref="D13" r:id="rId32" xr:uid="{C2488FF9-86BE-49EA-B9E7-158473280D41}"/>
-    <hyperlink ref="D64" r:id="rId33" xr:uid="{05323D59-655F-4539-98CD-067CD5CA2EC1}"/>
-    <hyperlink ref="D69" r:id="rId34" xr:uid="{3F05BEC6-AC44-451E-89B1-B7A70CC5EEC3}"/>
-    <hyperlink ref="C21" r:id="rId35" xr:uid="{5E5D40D5-D1C4-4E06-99D1-39AE06044EE2}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{694F146E-7873-4610-91C9-B2A4446FCC00}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{20C7B1B3-3011-40E0-B203-DC5208E7CDC5}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{055D7A6E-84ED-4BB8-BE28-87F02B6D6E8A}"/>
+    <hyperlink ref="C25" r:id="rId4" xr:uid="{762994F3-1976-4FBB-B48B-822883A19F6D}"/>
+    <hyperlink ref="C29" r:id="rId5" xr:uid="{109DA25F-4CE2-47F7-AA99-3368CDF15004}"/>
+    <hyperlink ref="C33" r:id="rId6" xr:uid="{7BB252FF-4F66-40A6-9A0D-8DF10435963D}"/>
+    <hyperlink ref="C35" r:id="rId7" xr:uid="{0CB37AAD-81A9-4FDA-88E9-0D69F3592708}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{48E3859A-7177-4B43-B776-703A0B00172B}"/>
+    <hyperlink ref="C42" r:id="rId9" xr:uid="{CC10012A-B604-4BDB-8826-37A085A958F0}"/>
+    <hyperlink ref="C49" r:id="rId10" xr:uid="{EA153626-7714-4C3F-9120-DA38D477DE23}"/>
+    <hyperlink ref="C50" r:id="rId11" xr:uid="{38F78724-BB1F-4E0B-88FD-A0ED4C694411}"/>
+    <hyperlink ref="C54" r:id="rId12" xr:uid="{6922FC74-E871-4D71-BAA0-37D2E9016181}"/>
+    <hyperlink ref="D53" r:id="rId13" xr:uid="{A8944E0C-0989-48EC-A459-7F30163AB1E3}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{50509023-D53A-4808-984F-28F1D9A73D23}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{4C7EB7B0-131D-4FAF-A9FF-9205E0235E3D}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{0E9A3DE6-8B52-43B8-A2E7-42FCB23A3D27}"/>
+    <hyperlink ref="D34" r:id="rId17" xr:uid="{C13871C5-0630-4D54-BBFC-C45AFEEA21DB}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{E08056A1-701D-4EF0-A1AC-C9FC8B6A8C4C}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{E0E82A4F-F0A5-4FBD-8EA6-6849A5B52536}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{B3989A19-9FE3-4A03-8D6D-021A03DC5ABC}"/>
+    <hyperlink ref="D35" r:id="rId21" xr:uid="{29897B15-7B38-46AE-84CE-B03F72C44FA6}"/>
+    <hyperlink ref="D44" r:id="rId22" xr:uid="{734CF5CC-6314-4ABA-A1B1-019A90EFCA83}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{45942A55-56C4-4DF6-B697-4425F4E6F68C}"/>
+    <hyperlink ref="D37" r:id="rId24" xr:uid="{92F257DC-A02C-419D-AE35-CDEB9074053A}"/>
+    <hyperlink ref="D16" r:id="rId25" xr:uid="{17886A30-DAE2-4C22-B335-409163CB1B5E}"/>
+    <hyperlink ref="D19" r:id="rId26" xr:uid="{36E1D9B9-5125-4FAB-8A7A-BF2DB6DA069A}"/>
+    <hyperlink ref="D49" r:id="rId27" xr:uid="{529E3E84-4107-4EB3-A63A-9C4425E55850}"/>
+    <hyperlink ref="D12" r:id="rId28" xr:uid="{C2488FF9-86BE-49EA-B9E7-158473280D41}"/>
+    <hyperlink ref="C20" r:id="rId29" xr:uid="{5E5D40D5-D1C4-4E06-99D1-39AE06044EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
